--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imanda Syahrul R\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJEK\Proyek1_Kosqu\Source\kosque\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29DFEB-C295-4721-93AA-71C1EFE1936D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{4F900918-29C6-4C08-8FD5-9AA822AFF1F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -39,19 +38,49 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>Pekerjaan</t>
-  </si>
-  <si>
-    <t>Instansi</t>
-  </si>
-  <si>
     <t>Akun</t>
+  </si>
+  <si>
+    <t>Jl Ciwaruga</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>danju27</t>
+  </si>
+  <si>
+    <t>M Dena</t>
+  </si>
+  <si>
+    <t>Jl Ciwaruga no 21</t>
+  </si>
+  <si>
+    <t>Afif</t>
+  </si>
+  <si>
+    <t>afifrana</t>
+  </si>
+  <si>
+    <t>Afif Rana</t>
+  </si>
+  <si>
+    <t>NamaDepan</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>NamaDepan NamaBelakang</t>
+  </si>
+  <si>
+    <t>Jl Jl2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,12 +100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,7 +119,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,21 +433,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A36A59-5B45-4E4F-B812-2DEEE26D2B0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -435,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -443,21 +467,44 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -468,6 +515,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
@@ -477,6 +533,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
@@ -486,6 +551,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
@@ -495,6 +569,23 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
@@ -504,6 +595,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
@@ -513,6 +613,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
@@ -522,6 +631,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>

--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imanda Syahrul R\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJEK\Proyek1_Kosqu\Source\kosque\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29DFEB-C295-4721-93AA-71C1EFE1936D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{4F900918-29C6-4C08-8FD5-9AA822AFF1F4}"/>
+    <workbookView windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>Username</t>
   </si>
@@ -33,25 +32,131 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Akun</t>
+  </si>
+  <si>
     <t>Nama Lengkap</t>
   </si>
   <si>
     <t>Alamat</t>
   </si>
   <si>
-    <t>Pekerjaan</t>
-  </si>
-  <si>
-    <t>Instansi</t>
-  </si>
-  <si>
-    <t>Akun</t>
+    <t/>
+  </si>
+  <si>
+    <t>Imanda</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Imanda Syahrul</t>
+  </si>
+  <si>
+    <t>Jl Cikutra</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Ahmad Aji</t>
+  </si>
+  <si>
+    <t>Jl Taman Fasco</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Salman Hafidz</t>
+  </si>
+  <si>
+    <t>Jl Kampus Polban</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Melina</t>
+  </si>
+  <si>
+    <t>polban</t>
+  </si>
+  <si>
+    <t>Melina Pratiwi</t>
+  </si>
+  <si>
+    <t>Jl Saridjadi</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>sulemi</t>
+  </si>
+  <si>
+    <t>Farhan Abdillah</t>
+  </si>
+  <si>
+    <t>Jl Cimahi</t>
+  </si>
+  <si>
+    <t>Regawa</t>
+  </si>
+  <si>
+    <t>grooming</t>
+  </si>
+  <si>
+    <t>Regawa Prayoga</t>
+  </si>
+  <si>
+    <t>Mumuh</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Mumuh Kustino</t>
+  </si>
+  <si>
+    <t>Anggita</t>
+  </si>
+  <si>
+    <t>Pencari</t>
+  </si>
+  <si>
+    <t>Anggita Fania</t>
+  </si>
+  <si>
+    <t>Jl Ciwaruga</t>
+  </si>
+  <si>
+    <t>Fajar</t>
+  </si>
+  <si>
+    <t>Fajar Ilahi</t>
+  </si>
+  <si>
+    <t>aji</t>
+  </si>
+  <si>
+    <t>jijijiji</t>
+  </si>
+  <si>
+    <t>Pemilik</t>
+  </si>
+  <si>
+    <t>aji namnung</t>
+  </si>
+  <si>
+    <t>ciwaruga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,7 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -81,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,20 +194,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,10 +240,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -131,7 +252,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -143,7 +264,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -190,26 +311,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -242,23 +346,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -320,21 +407,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -403,135 +490,288 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A36A59-5B45-4E4F-B812-2DEEE26D2B0F}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="7.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>ciwaruga</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin istrasi</t>
+  </si>
+  <si>
+    <t>Entah dimana</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>User Input</t>
   </si>
 </sst>
 </file>
@@ -702,18 +720,38 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Username</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>User Input</t>
+  </si>
+  <si>
+    <t>User name</t>
   </si>
 </sst>
 </file>
@@ -754,11 +757,21 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
   <si>
     <t>Username</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>User name</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a a</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaa aaa</t>
   </si>
 </sst>
 </file>
@@ -774,11 +786,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
   <si>
     <t>Username</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>aaa aaa</t>
+  </si>
+  <si>
+    <t>Salman s</t>
   </si>
 </sst>
 </file>
@@ -803,11 +806,21 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/Source/kosque/build/classes/data/UserData.xlsx
+++ b/Source/kosque/build/classes/data/UserData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -41,151 +41,70 @@
     <t>Alamat</t>
   </si>
   <si>
+    <t>Imanda</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Imanda Syahrul</t>
+  </si>
+  <si>
+    <t>Jl Cikutra</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Ahmad Aji</t>
+  </si>
+  <si>
+    <t>Jl Taman Fasco</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Salman Hafidz</t>
+  </si>
+  <si>
+    <t>Jl Kampus Polban</t>
+  </si>
+  <si>
+    <t>Melina</t>
+  </si>
+  <si>
+    <t>polban</t>
+  </si>
+  <si>
+    <t>Melina Pratiwi</t>
+  </si>
+  <si>
+    <t>Jl Saridjadi</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Imanda</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Imanda Syahrul</t>
-  </si>
-  <si>
-    <t>Jl Cikutra</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Ahmad Aji</t>
-  </si>
-  <si>
-    <t>Jl Taman Fasco</t>
-  </si>
-  <si>
-    <t>Salman</t>
-  </si>
-  <si>
-    <t>Salman Hafidz</t>
-  </si>
-  <si>
-    <t>Jl Kampus Polban</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Melina</t>
-  </si>
-  <si>
-    <t>polban</t>
-  </si>
-  <si>
-    <t>Melina Pratiwi</t>
-  </si>
-  <si>
-    <t>Jl Saridjadi</t>
-  </si>
-  <si>
-    <t>Farhan</t>
-  </si>
-  <si>
-    <t>sulemi</t>
-  </si>
-  <si>
-    <t>Farhan Abdillah</t>
-  </si>
-  <si>
-    <t>Jl Cimahi</t>
-  </si>
-  <si>
-    <t>Regawa</t>
-  </si>
-  <si>
-    <t>grooming</t>
-  </si>
-  <si>
-    <t>Regawa Prayoga</t>
-  </si>
-  <si>
-    <t>Mumuh</t>
+    <t>Fadly</t>
   </si>
   <si>
     <t>12345</t>
   </si>
   <si>
-    <t>Mumuh Kustino</t>
-  </si>
-  <si>
-    <t>Anggita</t>
-  </si>
-  <si>
     <t>Pencari</t>
   </si>
   <si>
-    <t>Anggita Fania</t>
+    <t>Fadly Triansyah</t>
   </si>
   <si>
     <t>Jl Ciwaruga</t>
   </si>
   <si>
-    <t>Fajar</t>
-  </si>
-  <si>
-    <t>Fajar Ilahi</t>
-  </si>
-  <si>
-    <t>aji</t>
-  </si>
-  <si>
-    <t>jijijiji</t>
-  </si>
-  <si>
-    <t>Pemilik</t>
-  </si>
-  <si>
-    <t>aji namnung</t>
-  </si>
-  <si>
-    <t>ciwaruga</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin istrasi</t>
-  </si>
-  <si>
-    <t>Entah dimana</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>User Input</t>
-  </si>
-  <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a a</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>aaa aaa</t>
-  </si>
-  <si>
-    <t>Salman s</t>
+    <t>Kosqu</t>
+  </si>
+  <si>
+    <t>Kosqu Kos</t>
   </si>
 </sst>
 </file>
@@ -202,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,11 +174,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -537,7 +464,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,82 +495,82 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -653,195 +580,105 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
